--- a/sofaplayer/Serie_A/Juventus_stats.xlsx
+++ b/sofaplayer/Serie_A/Juventus_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>935564</v>
       </c>
       <c r="E3" t="n">
-        <v>6.4272727272727</v>
+        <v>6.4260869565217</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>1242</v>
+        <v>1303</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>7.5533</v>
       </c>
       <c r="L3" t="n">
-        <v>248.4</v>
+        <v>260.6</v>
       </c>
       <c r="M3" t="n">
         <v>31</v>
@@ -1457,34 +1457,34 @@
         <v>4</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.27185836</v>
+        <v>1.28907206</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="AC3" t="n">
         <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AF3" t="n">
-        <v>79.274611398964</v>
+        <v>79.34508816120901</v>
       </c>
       <c r="AG3" t="n">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AJ3" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AK3" t="n">
         <v>3</v>
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ3" t="n">
         <v>13</v>
@@ -1535,25 +1535,25 @@
         <v>27.777777777778</v>
       </c>
       <c r="BA3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BB3" t="n">
-        <v>34.959349593496</v>
+        <v>35.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BD3" t="n">
-        <v>39.080459770115</v>
+        <v>39.772727272727</v>
       </c>
       <c r="BE3" t="n">
         <v>9</v>
       </c>
       <c r="BF3" t="n">
-        <v>25</v>
+        <v>24.324324324324</v>
       </c>
       <c r="BG3" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="BH3" t="n">
         <v>19</v>
@@ -1577,22 +1577,22 @@
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>141.4</v>
+        <v>147.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS3" t="n">
         <v>9</v>
       </c>
       <c r="BT3" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK3" t="n">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CS3" t="n">
         <v>18</v>
@@ -1673,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="DB3" t="n">
-        <v>44.444444444444</v>
+        <v>40</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="DG3" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>979222</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9294117647059</v>
+        <v>6.9111111111111</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1077</v>
+        <v>1122</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1765,13 +1765,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9524</v>
+        <v>3.9865</v>
       </c>
       <c r="L4" t="n">
-        <v>538.5</v>
+        <v>561</v>
       </c>
       <c r="M4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" t="n">
         <v>12</v>
@@ -1780,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>5.8823529411765</v>
+        <v>5.7142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.06055863</v>
+        <v>2.08982033</v>
       </c>
       <c r="AB4" t="n">
-        <v>711</v>
+        <v>742</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -1825,22 +1825,22 @@
         <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="AF4" t="n">
-        <v>89.86175115207401</v>
+        <v>89.782608695652</v>
       </c>
       <c r="AG4" t="n">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="AH4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="n">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="AJ4" t="n">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
@@ -1852,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>20.408163265306</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AS4" t="n">
         <v>7</v>
@@ -1891,16 +1891,16 @@
         <v>54</v>
       </c>
       <c r="BA4" t="n">
+        <v>68</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>47.222222222222</v>
+      </c>
+      <c r="BC4" t="n">
         <v>66</v>
       </c>
-      <c r="BB4" t="n">
-        <v>46.478873239437</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>64</v>
-      </c>
       <c r="BD4" t="n">
-        <v>49.230769230769</v>
+        <v>50</v>
       </c>
       <c r="BE4" t="n">
         <v>2</v>
@@ -1909,52 +1909,52 @@
         <v>16.666666666667</v>
       </c>
       <c r="BG4" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="BH4" t="n">
         <v>20</v>
       </c>
       <c r="BI4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="BR4" t="n">
         <v>18</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>117.8</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>17</v>
       </c>
       <c r="BS4" t="n">
         <v>3</v>
       </c>
       <c r="BT4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CA4" t="n">
         <v>8</v>
@@ -1975,10 +1975,10 @@
         <v>17</v>
       </c>
       <c r="CC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK4" t="n">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>50</v>
       </c>
       <c r="CT4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CU4" t="n">
         <v>76</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="DG4" t="n">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>835480</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5052631578947</v>
+        <v>6.51</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>3.1696</v>
       </c>
       <c r="L5" t="n">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="M5" t="n">
         <v>23</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.15673333</v>
+        <v>1.15678172</v>
       </c>
       <c r="AB5" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2181,16 +2181,16 @@
         <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.262773722628</v>
+        <v>72.857142857143</v>
       </c>
       <c r="AG5" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI5" t="n">
         <v>69</v>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="AR5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>1</v>
@@ -2247,16 +2247,16 @@
         <v>36.363636363636</v>
       </c>
       <c r="BA5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BB5" t="n">
-        <v>47.887323943662</v>
+        <v>48.611111111111</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
-        <v>58.333333333333</v>
+        <v>59.183673469388</v>
       </c>
       <c r="BE5" t="n">
         <v>6</v>
@@ -2271,7 +2271,7 @@
         <v>6</v>
       </c>
       <c r="BI5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ5" t="n">
         <v>9</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>123.6</v>
+        <v>130.2</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="DG5" t="n">
         <v>100</v>
@@ -2459,16 +2459,16 @@
         <v>367056</v>
       </c>
       <c r="E6" t="n">
-        <v>7.7</v>
+        <v>7.15</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2525,35 +2525,35 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.081955</v>
+        <v>0.1660713</v>
       </c>
       <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="n">
         <v>18</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
-      </c>
       <c r="AF6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>6</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>4</v>
-      </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN6" t="n">
         <v>50</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -2600,170 +2600,170 @@
         <v>1</v>
       </c>
       <c r="AZ6" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB6" t="n">
         <v>50</v>
       </c>
-      <c r="BA6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>75</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>75</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>100</v>
-      </c>
       <c r="DC6" t="n">
         <v>0</v>
       </c>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="DG6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1149011</v>
       </c>
       <c r="E7" t="n">
-        <v>7.3913043478261</v>
+        <v>7.375</v>
       </c>
       <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
         <v>23</v>
       </c>
-      <c r="G7" t="n">
-        <v>22</v>
-      </c>
       <c r="H7" t="n">
-        <v>1892</v>
+        <v>1967</v>
       </c>
       <c r="I7" t="n">
         <v>6</v>
@@ -2833,22 +2833,22 @@
         <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>6.7815</v>
+        <v>6.8208</v>
       </c>
       <c r="L7" t="n">
-        <v>236.5</v>
+        <v>245.875</v>
       </c>
       <c r="M7" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>11.267605633803</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -2881,70 +2881,70 @@
         <v>4</v>
       </c>
       <c r="AA7" t="n">
-        <v>5.0926677</v>
+        <v>5.1213881</v>
       </c>
       <c r="AB7" t="n">
-        <v>1315</v>
+        <v>1366</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="AF7" t="n">
-        <v>84.82587064676601</v>
+        <v>84.94623655914</v>
       </c>
       <c r="AG7" t="n">
-        <v>804</v>
+        <v>837</v>
       </c>
       <c r="AH7" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AI7" t="n">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="AJ7" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>65.71428571428601</v>
+        <v>65.789473684211</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>22.222222222222</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AS7" t="n">
         <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
       </c>
       <c r="AV7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -2953,37 +2953,37 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51.578947368421</v>
+        <v>50.980392156863</v>
       </c>
       <c r="BA7" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="BB7" t="n">
-        <v>46.724890829694</v>
+        <v>47.736625514403</v>
       </c>
       <c r="BC7" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="BD7" t="n">
-        <v>46.666666666667</v>
+        <v>47.272727272727</v>
       </c>
       <c r="BE7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BF7" t="n">
-        <v>47.368421052632</v>
+        <v>52.173913043478</v>
       </c>
       <c r="BG7" t="n">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="BH7" t="n">
         <v>17</v>
       </c>
       <c r="BI7" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BJ7" t="n">
         <v>5</v>
@@ -3001,22 +3001,22 @@
         <v>3</v>
       </c>
       <c r="BO7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="BR7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS7" t="n">
         <v>12</v>
       </c>
       <c r="BT7" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CA7" t="n">
         <v>24</v>
@@ -3043,10 +3043,10 @@
         <v>41</v>
       </c>
       <c r="CC7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CD7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CK7" t="n">
         <v>3</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CS7" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="CT7" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CU7" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CV7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>1</v>
       </c>
       <c r="CZ7" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="DA7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DB7" t="n">
-        <v>16.666666666667</v>
+        <v>23.076923076923</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="DG7" t="n">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3883,40 +3883,40 @@
         <v>363860</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5260869565217</v>
+        <v>7.6291666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="n">
-        <v>1834</v>
+        <v>1924</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.1155</v>
+        <v>1.1865</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>3.8461538461538</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
         <v>1</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.2887639</v>
+        <v>2.5933619</v>
       </c>
       <c r="AB10" t="n">
-        <v>2060</v>
+        <v>2158</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
@@ -3961,52 +3961,52 @@
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>1560</v>
+        <v>1630</v>
       </c>
       <c r="AF10" t="n">
-        <v>89.295935890097</v>
+        <v>89.266155531216</v>
       </c>
       <c r="AG10" t="n">
-        <v>1747</v>
+        <v>1826</v>
       </c>
       <c r="AH10" t="n">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="AI10" t="n">
-        <v>952</v>
+        <v>988</v>
       </c>
       <c r="AJ10" t="n">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AK10" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="n">
-        <v>61.052631578947</v>
+        <v>60.606060606061</v>
       </c>
       <c r="AM10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN10" t="n">
-        <v>28.571428571429</v>
+        <v>37.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP10" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -4027,31 +4027,31 @@
         <v>40</v>
       </c>
       <c r="BA10" t="n">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="BB10" t="n">
-        <v>61.95652173913</v>
+        <v>63.131313131313</v>
       </c>
       <c r="BC10" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="BD10" t="n">
-        <v>61.379310344828</v>
+        <v>63.057324840764</v>
       </c>
       <c r="BE10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF10" t="n">
-        <v>64.102564102564</v>
+        <v>63.414634146341</v>
       </c>
       <c r="BG10" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BH10" t="n">
         <v>29</v>
       </c>
       <c r="BI10" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>173.1</v>
+        <v>183.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT10" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA10" t="n">
         <v>21</v>
@@ -4111,10 +4111,10 @@
         <v>10</v>
       </c>
       <c r="CC10" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="CD10" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4162,13 +4162,13 @@
         <v>10</v>
       </c>
       <c r="CT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU10" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CV10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="DA10" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="DB10" t="n">
-        <v>71.929824561404</v>
+        <v>70.3125</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="DG10" t="n">
-        <v>1087</v>
+        <v>1130</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DJ10" t="n">
         <v>2171351</v>
@@ -4239,16 +4239,16 @@
         <v>881931</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8904761904762</v>
+        <v>6.9</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>1675</v>
+        <v>1765</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -4257,22 +4257,22 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.0755</v>
+        <v>5.3103</v>
       </c>
       <c r="L11" t="n">
-        <v>418.75</v>
+        <v>441.25</v>
       </c>
       <c r="M11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>12.5</v>
+        <v>11.764705882353</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -4302,67 +4302,67 @@
         <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>3.62152975</v>
+        <v>3.90029275</v>
       </c>
       <c r="AB11" t="n">
-        <v>1034</v>
+        <v>1076</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE11" t="n">
-        <v>579</v>
+        <v>595</v>
       </c>
       <c r="AF11" t="n">
-        <v>83.791606367583</v>
+        <v>83.216783216783</v>
       </c>
       <c r="AG11" t="n">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="AH11" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AI11" t="n">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AJ11" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>70.833333333333</v>
+        <v>65.384615384615</v>
       </c>
       <c r="AM11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.111111111111</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AU11" t="n">
         <v>5</v>
@@ -4377,31 +4377,31 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>47.826086956522</v>
+        <v>50</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BB11" t="n">
-        <v>44.96644295302</v>
+        <v>45.098039215686</v>
       </c>
       <c r="BC11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BD11" t="n">
-        <v>42.574257425743</v>
+        <v>42.718446601942</v>
       </c>
       <c r="BE11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BF11" t="n">
         <v>50</v>
       </c>
       <c r="BG11" t="n">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="BH11" t="n">
         <v>31</v>
@@ -4410,7 +4410,7 @@
         <v>6</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK11" t="n">
         <v>4</v>
@@ -4425,22 +4425,22 @@
         <v>6</v>
       </c>
       <c r="BO11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>144.7</v>
+        <v>151.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BT11" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4458,85 +4458,85 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CA11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB11" t="n">
         <v>10</v>
       </c>
       <c r="CC11" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>28</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>24</v>
+      </c>
+      <c r="CT11" t="n">
         <v>20</v>
       </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
+      <c r="CU11" t="n">
+        <v>84</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>26</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>23</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>18</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>82</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>24</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>24</v>
       </c>
       <c r="DA11" t="n">
         <v>14</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="DG11" t="n">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>803033</v>
       </c>
       <c r="E13" t="n">
-        <v>6.785</v>
+        <v>6.7714285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13" t="n">
         <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1335</v>
+        <v>1364</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4969,16 +4969,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0093</v>
+        <v>1.0311</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.1073166</v>
+        <v>1.11594497</v>
       </c>
       <c r="AB13" t="n">
-        <v>1127</v>
+        <v>1142</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,22 +5029,22 @@
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="AF13" t="n">
-        <v>90.728476821192</v>
+        <v>90.720524017467</v>
       </c>
       <c r="AG13" t="n">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="AH13" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AI13" t="n">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AJ13" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -5074,7 +5074,7 @@
         <v>11</v>
       </c>
       <c r="AT13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -5095,25 +5095,25 @@
         <v>40</v>
       </c>
       <c r="BA13" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB13" t="n">
-        <v>48.648648648649</v>
+        <v>48.245614035088</v>
       </c>
       <c r="BC13" t="n">
         <v>32</v>
       </c>
       <c r="BD13" t="n">
-        <v>44.444444444444</v>
+        <v>43.835616438356</v>
       </c>
       <c r="BE13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF13" t="n">
-        <v>56.410256410256</v>
+        <v>56.09756097561</v>
       </c>
       <c r="BG13" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BH13" t="n">
         <v>26</v>
@@ -5137,22 +5137,22 @@
         <v>2</v>
       </c>
       <c r="BO13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>135.7</v>
+        <v>142.2</v>
       </c>
       <c r="BR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5170,16 +5170,16 @@
         <v>4</v>
       </c>
       <c r="BZ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA13" t="n">
         <v>11</v>
       </c>
       <c r="CB13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CD13" t="n">
         <v>16</v>
@@ -5200,10 +5200,10 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -5233,10 +5233,10 @@
         <v>35</v>
       </c>
       <c r="CU13" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="CV13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="DG13" t="n">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="DH13" t="n">
         <v>11</v>
       </c>
       <c r="DI13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ13" t="n">
         <v>2171375</v>
@@ -5663,40 +5663,40 @@
         <v>1010223</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7636363636364</v>
+        <v>6.7166666666667</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>450</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.1171</v>
+      </c>
+      <c r="L15" t="n">
+        <v>450</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13</v>
+      </c>
+      <c r="N15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>389</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.0858</v>
-      </c>
-      <c r="L15" t="n">
-        <v>389</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5729,34 +5729,34 @@
         <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.34679811</v>
+        <v>1.35188025</v>
       </c>
       <c r="AB15" t="n">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="AF15" t="n">
-        <v>86.8</v>
+        <v>86.39705882352899</v>
       </c>
       <c r="AG15" t="n">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AH15" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AJ15" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
@@ -5771,19 +5771,19 @@
         <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR15" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -5804,19 +5804,19 @@
         <v>4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB15" t="n">
-        <v>50</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BC15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
-        <v>50</v>
+        <v>45.652173913043</v>
       </c>
       <c r="BE15" t="n">
         <v>3</v>
@@ -5825,7 +5825,7 @@
         <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="BH15" t="n">
         <v>10</v>
@@ -5849,22 +5849,22 @@
         <v>1</v>
       </c>
       <c r="BO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>74.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="BR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS15" t="n">
         <v>3</v>
       </c>
       <c r="BT15" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5885,10 +5885,10 @@
         <v>7</v>
       </c>
       <c r="CA15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CC15" t="n">
         <v>16</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CS15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CT15" t="n">
         <v>8</v>
       </c>
       <c r="CU15" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CV15" t="n">
         <v>3</v>
@@ -5966,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="DB15" t="n">
-        <v>45.454545454545</v>
+        <v>41.666666666667</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="DG15" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="DH15" t="n">
         <v>1</v>
@@ -6019,16 +6019,16 @@
         <v>885197</v>
       </c>
       <c r="E16" t="n">
-        <v>7.1571428571429</v>
+        <v>7.1333333333333</v>
       </c>
       <c r="F16" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="n">
-        <v>13</v>
-      </c>
       <c r="H16" t="n">
-        <v>1097</v>
+        <v>1187</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -6040,7 +6040,7 @@
         <v>1.6383</v>
       </c>
       <c r="L16" t="n">
-        <v>365.66666666667</v>
+        <v>395.66666666667</v>
       </c>
       <c r="M16" t="n">
         <v>10</v>
@@ -6085,40 +6085,40 @@
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8892594</v>
+        <v>0.9076916</v>
       </c>
       <c r="AB16" t="n">
-        <v>789</v>
+        <v>855</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.09160305343499</v>
+        <v>88.051209103841</v>
       </c>
       <c r="AG16" t="n">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="AH16" t="n">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="AI16" t="n">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AJ16" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>44.615384615385</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -6127,22 +6127,22 @@
         <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6163,31 +6163,31 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BB16" t="n">
-        <v>53.932584269663</v>
+        <v>54.639175257732</v>
       </c>
       <c r="BC16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD16" t="n">
-        <v>51.515151515152</v>
+        <v>50</v>
       </c>
       <c r="BE16" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BF16" t="n">
-        <v>55.357142857143</v>
+        <v>57.627118644068</v>
       </c>
       <c r="BG16" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="BH16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
@@ -6205,22 +6205,22 @@
         <v>5</v>
       </c>
       <c r="BO16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>100.2</v>
+        <v>107</v>
       </c>
       <c r="BR16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS16" t="n">
         <v>5</v>
       </c>
       <c r="BT16" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6244,10 +6244,10 @@
         <v>2</v>
       </c>
       <c r="CB16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CD16" t="n">
         <v>10</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CK16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS16" t="n">
         <v>3</v>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="CU16" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV16" t="n">
         <v>25</v>
@@ -6316,34 +6316,34 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="DA16" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>407</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>296</v>
+      </c>
+      <c r="DH16" t="n">
         <v>6</v>
       </c>
-      <c r="DB16" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>381</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>274</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>5</v>
-      </c>
       <c r="DI16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ16" t="n">
         <v>2171397</v>
@@ -6375,40 +6375,40 @@
         <v>917048</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8272727272727</v>
+        <v>6.8130434782609</v>
       </c>
       <c r="F17" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n">
         <v>22</v>
       </c>
-      <c r="G17" t="n">
-        <v>21</v>
-      </c>
       <c r="H17" t="n">
-        <v>1701</v>
+        <v>1778</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.2201</v>
+        <v>1.6602</v>
       </c>
       <c r="L17" t="n">
-        <v>1701</v>
+        <v>889</v>
       </c>
       <c r="M17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.25</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.4600222</v>
+        <v>3.46387524</v>
       </c>
       <c r="AB17" t="n">
-        <v>1347</v>
+        <v>1387</v>
       </c>
       <c r="AC17" t="n">
         <v>7</v>
@@ -6453,52 +6453,52 @@
         <v>39</v>
       </c>
       <c r="AE17" t="n">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="AF17" t="n">
-        <v>87.421383647799</v>
+        <v>87.397540983607</v>
       </c>
       <c r="AG17" t="n">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="AH17" t="n">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="AI17" t="n">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>63.636363636364</v>
+        <v>63.04347826087</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>27.380952380952</v>
+        <v>27.058823529412</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ17" t="n">
         <v>8</v>
       </c>
       <c r="AR17" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AS17" t="n">
         <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
@@ -6513,22 +6513,22 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>29.411764705882</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BB17" t="n">
-        <v>48.780487804878</v>
+        <v>48.854961832061</v>
       </c>
       <c r="BC17" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BD17" t="n">
-        <v>49.54128440367</v>
+        <v>49.57264957265</v>
       </c>
       <c r="BE17" t="n">
         <v>6</v>
@@ -6537,13 +6537,13 @@
         <v>42.857142857143</v>
       </c>
       <c r="BG17" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="BH17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BI17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ17" t="n">
         <v>2</v>
@@ -6561,22 +6561,22 @@
         <v>2</v>
       </c>
       <c r="BO17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>150.2</v>
+        <v>156.7</v>
       </c>
       <c r="BR17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT17" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6594,22 +6594,22 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CA17" t="n">
         <v>8</v>
       </c>
       <c r="CB17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC17" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CD17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6651,13 +6651,13 @@
         <v>39</v>
       </c>
       <c r="CS17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT17" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CU17" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="CV17" t="n">
         <v>8</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DA17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DB17" t="n">
-        <v>75</v>
+        <v>75.609756097561</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="DG17" t="n">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>965330</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9666666666667</v>
+        <v>6.904</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>2160</v>
+        <v>2202</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -6752,7 +6752,7 @@
         <v>1.4643</v>
       </c>
       <c r="L18" t="n">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="M18" t="n">
         <v>10</v>
@@ -6797,34 +6797,34 @@
         <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.12933422</v>
+        <v>2.30285522</v>
       </c>
       <c r="AB18" t="n">
-        <v>1797</v>
+        <v>1838</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>1286</v>
+        <v>1315</v>
       </c>
       <c r="AF18" t="n">
-        <v>89.367616400278</v>
+        <v>89.455782312925</v>
       </c>
       <c r="AG18" t="n">
-        <v>1439</v>
+        <v>1470</v>
       </c>
       <c r="AH18" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="AI18" t="n">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="AJ18" t="n">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AK18" t="n">
         <v>52</v>
@@ -6833,13 +6833,13 @@
         <v>54.166666666667</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>20.967741935484</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>40</v>
@@ -6848,7 +6848,7 @@
         <v>5</v>
       </c>
       <c r="AR18" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
@@ -6875,28 +6875,28 @@
         <v>40</v>
       </c>
       <c r="BA18" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BB18" t="n">
-        <v>52.348993288591</v>
+        <v>51.633986928105</v>
       </c>
       <c r="BC18" t="n">
         <v>56</v>
       </c>
       <c r="BD18" t="n">
-        <v>56.565656565657</v>
+        <v>54.901960784314</v>
       </c>
       <c r="BE18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF18" t="n">
-        <v>44</v>
+        <v>45.098039215686</v>
       </c>
       <c r="BG18" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="BH18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BI18" t="n">
         <v>10</v>
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="BL18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" t="n">
         <v>0</v>
@@ -6917,22 +6917,22 @@
         <v>9</v>
       </c>
       <c r="BO18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>167.2</v>
+        <v>172.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS18" t="n">
         <v>5</v>
       </c>
       <c r="BT18" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6956,13 +6956,13 @@
         <v>2</v>
       </c>
       <c r="CB18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC18" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CD18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -7004,16 +7004,16 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CS18" t="n">
         <v>15</v>
       </c>
       <c r="CT18" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CU18" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CV18" t="n">
         <v>28</v>
@@ -7037,7 +7037,7 @@
         <v>55</v>
       </c>
       <c r="DC18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="DG18" t="n">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7443,16 +7443,16 @@
         <v>988037</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8181818181818</v>
+        <v>6.7416666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>0.7946</v>
       </c>
       <c r="L20" t="n">
-        <v>133.5</v>
+        <v>148</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.17561536</v>
+        <v>0.17708514</v>
       </c>
       <c r="AB20" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AC20" t="n">
         <v>2</v>
@@ -7521,28 +7521,28 @@
         <v>2</v>
       </c>
       <c r="AE20" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AF20" t="n">
-        <v>83.2</v>
+        <v>80.597014925373</v>
       </c>
       <c r="AG20" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AH20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>33.333333333333</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7560,10 +7560,10 @@
         <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AS20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT20" t="n">
         <v>6</v>
@@ -7587,31 +7587,31 @@
         <v>100</v>
       </c>
       <c r="BA20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
-        <v>43.75</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
-        <v>45.454545454545</v>
+        <v>45.833333333333</v>
       </c>
       <c r="BE20" t="n">
         <v>4</v>
       </c>
       <c r="BF20" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BG20" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="BH20" t="n">
         <v>4</v>
       </c>
       <c r="BI20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20" t="n">
         <v>2</v>
@@ -7629,22 +7629,22 @@
         <v>0</v>
       </c>
       <c r="BO20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>75</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="BR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7671,31 +7671,31 @@
         <v>4</v>
       </c>
       <c r="CC20" t="n">
+        <v>5</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>4</v>
       </c>
-      <c r="CD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>3</v>
-      </c>
       <c r="CK20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7725,10 +7725,10 @@
         <v>4</v>
       </c>
       <c r="CU20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DA20" t="n">
         <v>6</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="DG20" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7799,16 +7799,16 @@
         <v>865167</v>
       </c>
       <c r="E21" t="n">
-        <v>6.9666666666667</v>
+        <v>6.9318181818182</v>
       </c>
       <c r="F21" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" t="n">
         <v>21</v>
       </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
       <c r="H21" t="n">
-        <v>1813</v>
+        <v>1903</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>0.5207000000000001</v>
       </c>
       <c r="L21" t="n">
-        <v>1813</v>
+        <v>1903</v>
       </c>
       <c r="M21" t="n">
         <v>10</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.24145742</v>
+        <v>0.24555185</v>
       </c>
       <c r="AB21" t="n">
-        <v>1513</v>
+        <v>1565</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7877,28 +7877,28 @@
         <v>3</v>
       </c>
       <c r="AE21" t="n">
-        <v>1099</v>
+        <v>1129</v>
       </c>
       <c r="AF21" t="n">
-        <v>89.495114006515</v>
+        <v>89.17851500789899</v>
       </c>
       <c r="AG21" t="n">
-        <v>1228</v>
+        <v>1266</v>
       </c>
       <c r="AH21" t="n">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="AI21" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="AJ21" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AK21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>50</v>
+        <v>48.780487804878</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7907,22 +7907,22 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AS21" t="n">
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7943,31 +7943,31 @@
         <v>85.71428571428601</v>
       </c>
       <c r="BA21" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BB21" t="n">
-        <v>60.31746031746</v>
+        <v>60.204081632653</v>
       </c>
       <c r="BC21" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BD21" t="n">
-        <v>56.666666666667</v>
+        <v>56.989247311828</v>
       </c>
       <c r="BE21" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BF21" t="n">
-        <v>63.636363636364</v>
+        <v>63.106796116505</v>
       </c>
       <c r="BG21" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="BH21" t="n">
         <v>30</v>
       </c>
       <c r="BI21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ21" t="n">
         <v>3</v>
@@ -7985,22 +7985,22 @@
         <v>7</v>
       </c>
       <c r="BO21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>146.3</v>
+        <v>152.5</v>
       </c>
       <c r="BR21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8024,10 +8024,10 @@
         <v>4</v>
       </c>
       <c r="CB21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC21" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="CD21" t="n">
         <v>18</v>
@@ -8048,10 +8048,10 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL21" t="n">
         <v>0</v>
@@ -8081,10 +8081,10 @@
         <v>8</v>
       </c>
       <c r="CU21" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="CV21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="DA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB21" t="n">
-        <v>70</v>
+        <v>70.967741935484</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,16 +8114,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="DG21" t="n">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="DH21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="DI21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DJ21" t="n">
         <v>2171365</v>
@@ -8155,16 +8155,16 @@
         <v>965264</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8181818181818</v>
+        <v>6.775</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
         <v>8</v>
       </c>
       <c r="H22" t="n">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -8173,13 +8173,13 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.898</v>
+        <v>0.9416</v>
       </c>
       <c r="L22" t="n">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>12.5</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.56698071</v>
+        <v>1.57197559</v>
       </c>
       <c r="AB22" t="n">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="AC22" t="n">
         <v>3</v>
@@ -8233,91 +8233,91 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="n">
-        <v>78.52348993288599</v>
+        <v>77.81350482315101</v>
       </c>
       <c r="AG22" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AH22" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AI22" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AK22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>27.777777777778</v>
+        <v>27.5</v>
       </c>
       <c r="AM22" t="n">
         <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>26.086956521739</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
         <v>4</v>
       </c>
-      <c r="AT22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>2</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>28.571428571429</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA22" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>55.172413793103</v>
+        <v>54.255319148936</v>
       </c>
       <c r="BC22" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BD22" t="n">
-        <v>58.333333333333</v>
+        <v>58.461538461538</v>
       </c>
       <c r="BE22" t="n">
         <v>13</v>
       </c>
       <c r="BF22" t="n">
-        <v>48.148148148148</v>
+        <v>44.827586206897</v>
       </c>
       <c r="BG22" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="BH22" t="n">
         <v>11</v>
@@ -8341,28 +8341,28 @@
         <v>1</v>
       </c>
       <c r="BO22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>75</v>
+        <v>81.3</v>
       </c>
       <c r="BR22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS22" t="n">
         <v>5</v>
       </c>
       <c r="BT22" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB22" t="n">
         <v>6</v>
       </c>
-      <c r="CA22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>5</v>
-      </c>
       <c r="CC22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CD22" t="n">
         <v>5</v>
@@ -8404,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -8431,16 +8431,16 @@
         <v>7</v>
       </c>
       <c r="CS22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CT22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CU22" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CV22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="DA22" t="n">
         <v>14</v>
       </c>
       <c r="DB22" t="n">
-        <v>70</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC22" t="n">
         <v>1</v>
@@ -8470,16 +8470,16 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="DG22" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ22" t="n">
         <v>2321038</v>
@@ -8511,16 +8511,16 @@
         <v>844609</v>
       </c>
       <c r="E23" t="n">
-        <v>6.8857142857143</v>
+        <v>6.8727272727273</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8575,10 +8575,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01315929</v>
+        <v>0.01347768</v>
       </c>
       <c r="AB23" t="n">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8587,28 +8587,28 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AF23" t="n">
-        <v>77.00205338809</v>
+        <v>76.470588235294</v>
       </c>
       <c r="AG23" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="AH23" t="n">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="AI23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="n">
         <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
-        <v>41.269841269841</v>
+        <v>40.5</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>100</v>
       </c>
       <c r="BG23" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="BM23" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="BN23" t="n">
         <v>9</v>
       </c>
       <c r="BO23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>144.6</v>
+        <v>151.2</v>
       </c>
       <c r="BR23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CD23" t="n">
         <v>24</v>
@@ -8752,16 +8752,16 @@
         <v>2</v>
       </c>
       <c r="CH23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CI23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CJ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CK23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL23" t="n">
         <v>3</v>
@@ -8773,7 +8773,7 @@
         <v>5</v>
       </c>
       <c r="CO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CP23" t="n">
         <v>0</v>
@@ -8806,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="DA23" t="n">
         <v>0</v>
@@ -8824,13 +8824,13 @@
         <v>14</v>
       </c>
       <c r="DF23" t="n">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="DG23" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="DH23" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="DI23" t="n">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="DL23" t="n">
-        <v>0.3026</v>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="24">
